--- a/DGD ENTERPRISES pay_report.xlsx
+++ b/DGD ENTERPRISES pay_report.xlsx
@@ -23,7 +23,7 @@
     <t>FORM II M.W. RULES 1963 Rule 27</t>
   </si>
   <si>
-    <t>January-2020</t>
+    <t>February-2020</t>
   </si>
   <si>
     <t>SR. NO.</t>
@@ -83,7 +83,7 @@
     <t>MR. AKSHAY M NAIR</t>
   </si>
   <si>
-    <t>NEFT1234</t>
+    <t>Test</t>
   </si>
   <si>
     <t>MR. PRAVIN RAVINDRA ROY</t>
@@ -660,13 +660,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>14125</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>14125</v>
